--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H2">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I2">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J2">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N2">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O2">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P2">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q2">
-        <v>83.03382261213756</v>
+        <v>117.4227072881155</v>
       </c>
       <c r="R2">
-        <v>83.03382261213756</v>
+        <v>1056.80436559304</v>
       </c>
       <c r="S2">
-        <v>0.05027604773870115</v>
+        <v>0.04384894423746207</v>
       </c>
       <c r="T2">
-        <v>0.05027604773870115</v>
+        <v>0.04551713682497855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H3">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I3">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J3">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N3">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P3">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q3">
-        <v>196.6408484639519</v>
+        <v>230.8345582116793</v>
       </c>
       <c r="R3">
-        <v>196.6408484639519</v>
+        <v>2077.511023905114</v>
       </c>
       <c r="S3">
-        <v>0.1190638269290905</v>
+        <v>0.08620012180665809</v>
       </c>
       <c r="T3">
-        <v>0.1190638269290905</v>
+        <v>0.08947952583203554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H4">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I4">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J4">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N4">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O4">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P4">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q4">
-        <v>202.6396517267704</v>
+        <v>382.6588282615498</v>
       </c>
       <c r="R4">
-        <v>202.6396517267704</v>
+        <v>3443.929454353948</v>
       </c>
       <c r="S4">
-        <v>0.1226960349827331</v>
+        <v>0.1428955779502072</v>
       </c>
       <c r="T4">
-        <v>0.1226960349827331</v>
+        <v>0.1483319082443756</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H5">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I5">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J5">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N5">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O5">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P5">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q5">
-        <v>147.2584142706676</v>
+        <v>344.5451765466077</v>
       </c>
       <c r="R5">
-        <v>147.2584142706676</v>
+        <v>3100.906588919469</v>
       </c>
       <c r="S5">
-        <v>0.08916331722291793</v>
+        <v>0.1286628675372724</v>
       </c>
       <c r="T5">
-        <v>0.08916331722291793</v>
+        <v>0.133557727508175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H6">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I6">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J6">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N6">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O6">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P6">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q6">
-        <v>64.9849445621751</v>
+        <v>70.12998692139966</v>
       </c>
       <c r="R6">
-        <v>64.9849445621751</v>
+        <v>420.779921528398</v>
       </c>
       <c r="S6">
-        <v>0.03934765463425959</v>
+        <v>0.02618851120801602</v>
       </c>
       <c r="T6">
-        <v>0.03934765463425959</v>
+        <v>0.01812321928729357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H7">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J7">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N7">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O7">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P7">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q7">
-        <v>25.42793323955995</v>
+        <v>35.32817141959111</v>
       </c>
       <c r="R7">
-        <v>25.42793323955995</v>
+        <v>317.95354277632</v>
       </c>
       <c r="S7">
-        <v>0.01539632820977398</v>
+        <v>0.013192533662064</v>
       </c>
       <c r="T7">
-        <v>0.01539632820977398</v>
+        <v>0.01369443142148176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H8">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J8">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N8">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P8">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q8">
-        <v>60.21847735793496</v>
+        <v>69.44962376023466</v>
       </c>
       <c r="R8">
-        <v>60.21847735793496</v>
+        <v>625.046613842112</v>
       </c>
       <c r="S8">
-        <v>0.03646161223410756</v>
+        <v>0.02593444445206951</v>
       </c>
       <c r="T8">
-        <v>0.03646161223410756</v>
+        <v>0.0269210964399032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H9">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J9">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N9">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O9">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P9">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q9">
-        <v>62.05552597361444</v>
+        <v>115.1279594233316</v>
       </c>
       <c r="R9">
-        <v>62.05552597361444</v>
+        <v>1036.151634809984</v>
       </c>
       <c r="S9">
-        <v>0.03757392455449345</v>
+        <v>0.04299202078981021</v>
       </c>
       <c r="T9">
-        <v>0.03757392455449345</v>
+        <v>0.04462761251615883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H10">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J10">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N10">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O10">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P10">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q10">
-        <v>45.09580565173987</v>
+        <v>103.6609642201955</v>
       </c>
       <c r="R10">
-        <v>45.09580565173987</v>
+        <v>932.9486779817598</v>
       </c>
       <c r="S10">
-        <v>0.02730500423125945</v>
+        <v>0.03870992199609207</v>
       </c>
       <c r="T10">
-        <v>0.02730500423125945</v>
+        <v>0.0401826052284982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H11">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J11">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N11">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O11">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P11">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q11">
-        <v>19.9007197298652</v>
+        <v>21.09953225259733</v>
       </c>
       <c r="R11">
-        <v>19.9007197298652</v>
+        <v>126.597193515584</v>
       </c>
       <c r="S11">
-        <v>0.01204966245919842</v>
+        <v>0.007879159274624495</v>
       </c>
       <c r="T11">
-        <v>0.01204966245919842</v>
+        <v>0.005452609741703242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H12">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I12">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J12">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N12">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O12">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P12">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q12">
-        <v>28.55381429781034</v>
+        <v>38.33824951982667</v>
       </c>
       <c r="R12">
-        <v>28.55381429781034</v>
+        <v>345.04424567844</v>
       </c>
       <c r="S12">
-        <v>0.01728901411012329</v>
+        <v>0.01431658155549043</v>
       </c>
       <c r="T12">
-        <v>0.01728901411012329</v>
+        <v>0.01486124267891698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H13">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I13">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J13">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N13">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P13">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q13">
-        <v>67.62119451769995</v>
+        <v>75.366963468181</v>
       </c>
       <c r="R13">
-        <v>67.62119451769995</v>
+        <v>678.3026712136291</v>
       </c>
       <c r="S13">
-        <v>0.04094387439682827</v>
+        <v>0.02814414566642841</v>
       </c>
       <c r="T13">
-        <v>0.04094387439682827</v>
+        <v>0.02921486369622784</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H14">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I14">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J14">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N14">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O14">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P14">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q14">
-        <v>69.68407334210059</v>
+        <v>124.9372457650753</v>
       </c>
       <c r="R14">
-        <v>69.68407334210059</v>
+        <v>1124.435211885678</v>
       </c>
       <c r="S14">
-        <v>0.04219292437419932</v>
+        <v>0.04665508443177713</v>
       </c>
       <c r="T14">
-        <v>0.04219292437419932</v>
+        <v>0.04843003403142</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H15">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I15">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J15">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N15">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O15">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P15">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q15">
-        <v>50.63947777661424</v>
+        <v>112.4932243035883</v>
       </c>
       <c r="R15">
-        <v>50.63947777661424</v>
+        <v>1012.439018732295</v>
       </c>
       <c r="S15">
-        <v>0.0306616354886183</v>
+        <v>0.04200813653084287</v>
       </c>
       <c r="T15">
-        <v>0.0306616354886183</v>
+        <v>0.04360629728920983</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H16">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I16">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J16">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N16">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O16">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P16">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q16">
-        <v>22.34713494824226</v>
+        <v>22.8972828127505</v>
       </c>
       <c r="R16">
-        <v>22.34713494824226</v>
+        <v>137.383696876503</v>
       </c>
       <c r="S16">
-        <v>0.01353093941885788</v>
+        <v>0.00855048993873192</v>
       </c>
       <c r="T16">
-        <v>0.01353093941885788</v>
+        <v>0.005917190287854305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H17">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I17">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J17">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N17">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O17">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P17">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q17">
-        <v>50.06282487743204</v>
+        <v>69.73906094549777</v>
       </c>
       <c r="R17">
-        <v>50.06282487743204</v>
+        <v>627.6515485094799</v>
       </c>
       <c r="S17">
-        <v>0.03031247862969143</v>
+        <v>0.02604252844442467</v>
       </c>
       <c r="T17">
-        <v>0.03031247862969143</v>
+        <v>0.02703329238792824</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H18">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I18">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J18">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N18">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P18">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q18">
-        <v>118.5588721644794</v>
+        <v>137.0960157131437</v>
       </c>
       <c r="R18">
-        <v>118.5588721644794</v>
+        <v>1233.864141418293</v>
       </c>
       <c r="S18">
-        <v>0.07178606656026246</v>
+        <v>0.05119551138804557</v>
       </c>
       <c r="T18">
-        <v>0.07178606656026246</v>
+        <v>0.05314319733800028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H19">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I19">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J19">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N19">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O19">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P19">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q19">
-        <v>122.1756758689586</v>
+        <v>227.2666672553029</v>
       </c>
       <c r="R19">
-        <v>122.1756758689586</v>
+        <v>2045.400005297726</v>
       </c>
       <c r="S19">
-        <v>0.07397600061348919</v>
+        <v>0.08486777089085419</v>
       </c>
       <c r="T19">
-        <v>0.07397600061348919</v>
+        <v>0.08809648685611143</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H20">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I20">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J20">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N20">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O20">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P20">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q20">
-        <v>88.7851717943567</v>
+        <v>204.6304128102238</v>
       </c>
       <c r="R20">
-        <v>88.7851717943567</v>
+        <v>1841.673715292015</v>
       </c>
       <c r="S20">
-        <v>0.05375842512361179</v>
+        <v>0.07641475629230784</v>
       </c>
       <c r="T20">
-        <v>0.05375842512361179</v>
+        <v>0.07932188512381114</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H21">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I21">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J21">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N21">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O21">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P21">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q21">
-        <v>39.18077955392413</v>
+        <v>41.65122355779183</v>
       </c>
       <c r="R21">
-        <v>39.18077955392413</v>
+        <v>249.907341346751</v>
       </c>
       <c r="S21">
-        <v>0.02372352231083083</v>
+        <v>0.01555373931829392</v>
       </c>
       <c r="T21">
-        <v>0.02372352231083083</v>
+        <v>0.01076364464416592</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H22">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I22">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J22">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N22">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O22">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P22">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q22">
-        <v>10.36409298879115</v>
+        <v>13.65474438988</v>
       </c>
       <c r="R22">
-        <v>10.36409298879115</v>
+        <v>81.92846633928001</v>
       </c>
       <c r="S22">
-        <v>0.00627534199294631</v>
+        <v>0.005099065923080159</v>
       </c>
       <c r="T22">
-        <v>0.00627534199294631</v>
+        <v>0.003528703451308129</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H23">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I23">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J23">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N23">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P23">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q23">
-        <v>24.54426370799505</v>
+        <v>26.843077983183</v>
       </c>
       <c r="R23">
-        <v>24.54426370799505</v>
+        <v>161.058467899098</v>
       </c>
       <c r="S23">
-        <v>0.01486127622545526</v>
+        <v>0.0100239609257039</v>
       </c>
       <c r="T23">
-        <v>0.01486127622545526</v>
+        <v>0.006936875507768002</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H24">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I24">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J24">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N24">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O24">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P24">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q24">
-        <v>25.29302069498491</v>
+        <v>44.49827983970601</v>
       </c>
       <c r="R24">
-        <v>25.29302069498491</v>
+        <v>266.989679038236</v>
       </c>
       <c r="S24">
-        <v>0.01531464017809937</v>
+        <v>0.01661691027585202</v>
       </c>
       <c r="T24">
-        <v>0.01531464017809937</v>
+        <v>0.01149939018734172</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H25">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I25">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J25">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N25">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O25">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P25">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q25">
-        <v>18.38046052645582</v>
+        <v>40.06615436796501</v>
       </c>
       <c r="R25">
-        <v>18.38046052645582</v>
+        <v>240.39692620779</v>
       </c>
       <c r="S25">
-        <v>0.01112916257275049</v>
+        <v>0.01496182986464201</v>
       </c>
       <c r="T25">
-        <v>0.01112916257275049</v>
+        <v>0.01035402590938759</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H26">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I26">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J26">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N26">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O26">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P26">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q26">
-        <v>8.111273058689333</v>
+        <v>8.155211777971502</v>
       </c>
       <c r="R26">
-        <v>8.111273058689333</v>
+        <v>32.62084711188601</v>
       </c>
       <c r="S26">
-        <v>0.004911284807700693</v>
+        <v>0.003045385639249002</v>
       </c>
       <c r="T26">
-        <v>0.004911284807700693</v>
+        <v>0.001404997565945143</v>
       </c>
     </row>
   </sheetData>
